--- a/SupplementaryTables/Table S5.xlsx
+++ b/SupplementaryTables/Table S5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skn/Dropbox/Diabetes_FinalSubmission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skn/Dropbox/Diabetes_FinalSubmission_RemoveBatchEffectArtifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B2C9CCCC-3448-3044-AF0E-77F64E0DCC28}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{03F6B053-1FC0-2E4B-A599-872C796D8B4E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="3120" windowWidth="30100" windowHeight="20940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8020" yWindow="2960" windowWidth="43180" windowHeight="20740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="136">
   <si>
     <t>Table S5: Constructs for luciferase assay</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t xml:space="preserve">chr6:137290566--137291421 </t>
-  </si>
-  <si>
-    <t>TH</t>
   </si>
   <si>
     <t>chr11:2196866-2197373</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -476,6 +473,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -489,15 +487,25 @@
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -523,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,6 +565,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -842,42 +856,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="54" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="51.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="57.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="54" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="13" customFormat="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -892,16 +906,16 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>6</v>
@@ -910,20 +924,17 @@
         <v>7</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="4">
@@ -951,7 +962,7 @@
         <v>15</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>16</v>
@@ -959,21 +970,18 @@
       <c r="L3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>11</v>
+      <c r="M3" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="4">
@@ -1009,21 +1017,18 @@
       <c r="L4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>21</v>
+      <c r="M4" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="7">
@@ -1059,31 +1064,28 @@
       <c r="L5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>30</v>
+      <c r="M5" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="4" t="s">
-        <v>136</v>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="B6" s="4">
         <v>0.5457014</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="E6" s="5">
         <v>2197286</v>
@@ -1101,16 +1103,16 @@
         <v>33</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>44</v>
@@ -1118,22 +1120,19 @@
       <c r="O6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="B7" s="7">
         <v>4.1135340000000002E-5</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="E7" s="5">
         <v>3881005</v>
@@ -1145,22 +1144,22 @@
         <v>14</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>53</v>
@@ -1168,22 +1167,19 @@
       <c r="O7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="6" t="s">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="B8" s="4">
         <v>7.8157140000000003E-4</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E8" s="5">
         <v>80582366</v>
@@ -1204,13 +1200,13 @@
         <v>14</v>
       </c>
       <c r="K8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>61</v>
@@ -1218,16 +1214,13 @@
       <c r="O8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P8" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="4"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="5">
         <v>80582193</v>
@@ -1248,20 +1241,19 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="4" t="s">
-        <v>65</v>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="B10" s="4">
         <v>0.66647469999999998</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="E10" s="5">
         <v>71588592</v>
@@ -1279,16 +1271,16 @@
         <v>24</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>70</v>
@@ -1296,16 +1288,13 @@
       <c r="O10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="4"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="5">
         <v>71588586</v>
@@ -1326,20 +1315,19 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="4" t="s">
-        <v>74</v>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="B12" s="4">
         <v>0.48942819999999998</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="E12" s="5">
         <v>22134094</v>
@@ -1357,16 +1345,16 @@
         <v>15</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>79</v>
@@ -1374,16 +1362,13 @@
       <c r="O12" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="P12" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="5">
         <v>22134068</v>
@@ -1404,20 +1389,19 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="4" t="s">
-        <v>83</v>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="B14" s="7">
         <v>4.1135340000000002E-5</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="E14" s="5">
         <v>24406877</v>
@@ -1438,13 +1422,13 @@
         <v>15</v>
       </c>
       <c r="K14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>88</v>
@@ -1452,16 +1436,13 @@
       <c r="O14" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P14" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="5">
         <v>24406847</v>
@@ -1482,14 +1463,13 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="5">
         <v>24406760</v>
@@ -1510,14 +1490,13 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="4"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="5">
         <v>24406519</v>
@@ -1538,20 +1517,19 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="8" t="s">
-        <v>94</v>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="B18" s="8">
         <v>1.6449999999999999E-4</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="E18" s="9">
         <v>124167512</v>
@@ -1572,13 +1550,13 @@
         <v>14</v>
       </c>
       <c r="K18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="M18" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>99</v>
@@ -1586,22 +1564,19 @@
       <c r="O18" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="P18" s="8" t="s">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="B19" s="11">
         <v>4.1140000000000003E-5</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="E19" s="8">
         <v>80944230</v>
@@ -1622,13 +1597,13 @@
         <v>15</v>
       </c>
       <c r="K19" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="M19" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>107</v>
@@ -1636,16 +1611,13 @@
       <c r="O19" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="P19" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="8"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
       <c r="B20" s="11"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E20" s="8">
         <v>80944147</v>
@@ -1666,20 +1638,19 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="4" t="s">
-        <v>111</v>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="B21" s="11">
         <v>4.1140000000000003E-5</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="E21" s="9">
         <v>71109165</v>
@@ -1700,13 +1671,13 @@
         <v>33</v>
       </c>
       <c r="K21" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L21" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="M21" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="N21" s="8" t="s">
         <v>116</v>
@@ -1714,16 +1685,13 @@
       <c r="O21" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="P21" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="4"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" s="9">
         <v>71109059</v>
@@ -1741,17 +1709,16 @@
       <c r="J22" s="8"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="4"/>
+      <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="4"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
       <c r="D23" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E23" s="9">
         <v>71109113</v>
@@ -1769,23 +1736,22 @@
       <c r="J23" s="8"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="4"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="4" t="s">
-        <v>121</v>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="B24" s="8">
         <v>1.061E-2</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="E24" s="8">
         <v>94396059</v>
@@ -1803,16 +1769,16 @@
         <v>15</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K24" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="M24" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>126</v>
@@ -1820,16 +1786,13 @@
       <c r="O24" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="P24" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E25" s="8">
         <v>94396138</v>
@@ -1849,7 +1812,6 @@
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
